--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="H2">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="I2">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="J2">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="N2">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="O2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="P2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="Q2">
-        <v>592.4665050059565</v>
+        <v>1581.994260287243</v>
       </c>
       <c r="R2">
-        <v>592.4665050059565</v>
+        <v>14237.94834258519</v>
       </c>
       <c r="S2">
-        <v>0.1599848681865412</v>
+        <v>0.2451627314340651</v>
       </c>
       <c r="T2">
-        <v>0.1599848681865412</v>
+        <v>0.2451627314340651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="H3">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="I3">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="J3">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="N3">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="O3">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="P3">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="Q3">
-        <v>23.4823610427066</v>
+        <v>52.61800626536534</v>
       </c>
       <c r="R3">
-        <v>23.4823610427066</v>
+        <v>473.5620563882881</v>
       </c>
       <c r="S3">
-        <v>0.006340987050547975</v>
+        <v>0.008154248382854102</v>
       </c>
       <c r="T3">
-        <v>0.006340987050547975</v>
+        <v>0.008154248382854102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="H4">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="I4">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="J4">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="N4">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="O4">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="P4">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="Q4">
-        <v>210.9000731208054</v>
+        <v>411.1655821503253</v>
       </c>
       <c r="R4">
-        <v>210.9000731208054</v>
+        <v>3700.490239352928</v>
       </c>
       <c r="S4">
-        <v>0.05694975178119942</v>
+        <v>0.06371861119985893</v>
       </c>
       <c r="T4">
-        <v>0.05694975178119942</v>
+        <v>0.06371861119985894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="H5">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="I5">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="J5">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="N5">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="O5">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="P5">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="Q5">
-        <v>161.7826148217389</v>
+        <v>281.3825381695253</v>
       </c>
       <c r="R5">
-        <v>161.7826148217389</v>
+        <v>2532.442843525728</v>
       </c>
       <c r="S5">
-        <v>0.04368647018597221</v>
+        <v>0.04360604419826744</v>
       </c>
       <c r="T5">
-        <v>0.04368647018597221</v>
+        <v>0.04360604419826744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H6">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="I6">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="J6">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="N6">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="O6">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="P6">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="Q6">
-        <v>768.6634807719502</v>
+        <v>1316.943789909635</v>
       </c>
       <c r="R6">
-        <v>768.6634807719502</v>
+        <v>11852.49410918671</v>
       </c>
       <c r="S6">
-        <v>0.207563675941262</v>
+        <v>0.2040876789406006</v>
       </c>
       <c r="T6">
-        <v>0.207563675941262</v>
+        <v>0.2040876789406006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H7">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="I7">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="J7">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="N7">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="O7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="P7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="Q7">
-        <v>30.4659136395382</v>
+        <v>43.80228065809622</v>
       </c>
       <c r="R7">
-        <v>30.4659136395382</v>
+        <v>394.220525922866</v>
       </c>
       <c r="S7">
-        <v>0.00822676917027582</v>
+        <v>0.006788069362040901</v>
       </c>
       <c r="T7">
-        <v>0.00822676917027582</v>
+        <v>0.006788069362040901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H8">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="I8">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="J8">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="N8">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="O8">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="P8">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="Q8">
-        <v>273.6208425798979</v>
+        <v>342.2780812991912</v>
       </c>
       <c r="R8">
-        <v>273.6208425798979</v>
+        <v>3080.502731692721</v>
       </c>
       <c r="S8">
-        <v>0.07388636161430799</v>
+        <v>0.05304306812471272</v>
       </c>
       <c r="T8">
-        <v>0.07388636161430799</v>
+        <v>0.05304306812471273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H9">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="I9">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="J9">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="N9">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="O9">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="P9">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="Q9">
-        <v>209.8960646492839</v>
+        <v>234.2391470902578</v>
       </c>
       <c r="R9">
-        <v>209.8960646492839</v>
+        <v>2108.15232381232</v>
       </c>
       <c r="S9">
-        <v>0.05667863744542286</v>
+        <v>0.03630020067140218</v>
       </c>
       <c r="T9">
-        <v>0.05667863744542286</v>
+        <v>0.03630020067140218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="H10">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="I10">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="J10">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="N10">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="O10">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="P10">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="Q10">
-        <v>428.8601926871343</v>
+        <v>746.5585360706021</v>
       </c>
       <c r="R10">
-        <v>428.8601926871343</v>
+        <v>6719.02682463542</v>
       </c>
       <c r="S10">
-        <v>0.1158059414629964</v>
+        <v>0.1156946864303119</v>
       </c>
       <c r="T10">
-        <v>0.1158059414629964</v>
+        <v>0.1156946864303119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="H11">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="I11">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="J11">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="N11">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="O11">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="P11">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="Q11">
-        <v>16.99783835277365</v>
+        <v>24.83095085395089</v>
       </c>
       <c r="R11">
-        <v>16.99783835277365</v>
+        <v>223.478557685558</v>
       </c>
       <c r="S11">
-        <v>0.004589958934973526</v>
+        <v>0.003848069419894294</v>
       </c>
       <c r="T11">
-        <v>0.004589958934973526</v>
+        <v>0.003848069419894294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="H12">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="I12">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="J12">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="N12">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="O12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="P12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="Q12">
-        <v>152.6611972695571</v>
+        <v>194.0330523304359</v>
       </c>
       <c r="R12">
-        <v>152.6611972695571</v>
+        <v>1746.297470973923</v>
       </c>
       <c r="S12">
-        <v>0.04122339628655312</v>
+        <v>0.0300694346951558</v>
       </c>
       <c r="T12">
-        <v>0.04122339628655312</v>
+        <v>0.0300694346951558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="H13">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="I13">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="J13">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="N13">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="O13">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="P13">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="Q13">
-        <v>117.1072504177799</v>
+        <v>132.7871668343025</v>
       </c>
       <c r="R13">
-        <v>117.1072504177799</v>
+        <v>1195.084501508723</v>
       </c>
       <c r="S13">
-        <v>0.03162269573634112</v>
+        <v>0.02057811797280326</v>
       </c>
       <c r="T13">
-        <v>0.03162269573634112</v>
+        <v>0.02057811797280326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="H14">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="I14">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="J14">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="N14">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="O14">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="P14">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="Q14">
-        <v>429.3007081302197</v>
+        <v>741.1135713309947</v>
       </c>
       <c r="R14">
-        <v>429.3007081302197</v>
+        <v>6670.022141978952</v>
       </c>
       <c r="S14">
-        <v>0.1159248946941085</v>
+        <v>0.1148508765242748</v>
       </c>
       <c r="T14">
-        <v>0.1159248946941085</v>
+        <v>0.1148508765242748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="H15">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="I15">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="J15">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="N15">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="O15">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="P15">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="Q15">
-        <v>17.01529814601431</v>
+        <v>24.64984830764245</v>
       </c>
       <c r="R15">
-        <v>17.01529814601431</v>
+        <v>221.848634768782</v>
       </c>
       <c r="S15">
-        <v>0.004594673636474067</v>
+        <v>0.003820003834552296</v>
       </c>
       <c r="T15">
-        <v>0.004594673636474067</v>
+        <v>0.003820003834552297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="H16">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="I16">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="J16">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="N16">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="O16">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="P16">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="Q16">
-        <v>152.8180073818125</v>
+        <v>192.6178878427075</v>
       </c>
       <c r="R16">
-        <v>152.8180073818125</v>
+        <v>1733.560990584367</v>
       </c>
       <c r="S16">
-        <v>0.04126574002232136</v>
+        <v>0.0298501256875637</v>
       </c>
       <c r="T16">
-        <v>0.04126574002232136</v>
+        <v>0.02985012568756371</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="H17">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="I17">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="J17">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="N17">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="O17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="P17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="Q17">
-        <v>117.2275403238751</v>
+        <v>131.8186942948408</v>
       </c>
       <c r="R17">
-        <v>117.2275403238751</v>
+        <v>1186.368248653567</v>
       </c>
       <c r="S17">
-        <v>0.03165517785070237</v>
+        <v>0.02042803312164191</v>
       </c>
       <c r="T17">
-        <v>0.03165517785070237</v>
+        <v>0.02042803312164191</v>
       </c>
     </row>
   </sheetData>
